--- a/data/trans_orig/Q5406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBC0812-60B3-4316-9777-8115F0B77696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C3293D-FAE2-496D-B4D7-2C1676F24FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75166A70-BCA5-42B8-847D-CB8FA1160085}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A6A3204-0549-4580-8732-FFA7E45FA0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -113,295 +113,295 @@
     <t>1,32%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>95,63%</t>
@@ -410,22 +410,22 @@
     <t>94,27%</t>
   </si>
   <si>
-    <t>96,78%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F652D-A462-4E1C-B687-873E537FCC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867BACD5-31F3-46B4-8182-2DDC9918B7FE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32737FC3-BAAB-418F-9968-8D3FD6931201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5FC2A4-421C-4A00-814F-1F2BA25EC7CB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3468,7 @@
         <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDE13F6-318B-4293-916B-E33C1C5B6997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D3917-DF06-480B-BE53-5FC7687F92C4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4786,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4801,7 +4801,7 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>80</v>
@@ -4992,13 +4992,13 @@
         <v>6613</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5007,7 +5007,7 @@
         <v>13884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>80</v>
@@ -5208,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F7A2A6-40E1-4C42-9F80-63648BE4A402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E8F95-B231-4A80-B883-14A5565DA15B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6308,13 +6308,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -6323,13 +6323,13 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6514,13 @@
         <v>57310</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -6529,13 +6529,13 @@
         <v>81008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C3293D-FAE2-496D-B4D7-2C1676F24FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E125492-9219-4D93-8CF2-AF795E0838CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A6A3204-0549-4580-8732-FFA7E45FA0EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2003E5EB-51B6-4163-98D2-3C85C2F7B563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,16 +104,16 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>1,66%</t>
@@ -122,61 +122,58 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,19%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
     <t>93,66%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>94,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,82 +188,79 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -275,25 +269,25 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -302,52 +296,52 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
@@ -840,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867BACD5-31F3-46B4-8182-2DDC9918B7FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24490D6B-5FB0-42F4-8005-917FAE3AB2B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1928,10 +1922,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -1940,13 +1934,13 @@
         <v>27043</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -1955,13 +1949,13 @@
         <v>55233</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1970,13 @@
         <v>470700</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -1991,13 +1985,13 @@
         <v>633852</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -2006,13 +2000,13 @@
         <v>1104552</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2021,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2042,13 +2036,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2057,13 +2051,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,10 +2128,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2146,13 +2140,13 @@
         <v>27043</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2161,13 +2155,13 @@
         <v>55233</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2176,13 @@
         <v>470700</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>622</v>
@@ -2197,13 +2191,13 @@
         <v>633852</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1111</v>
@@ -2212,13 +2206,13 @@
         <v>1104552</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2227,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2248,13 +2242,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2263,18 +2257,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5FC2A4-421C-4A00-814F-1F2BA25EC7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF435404-5425-4C00-AD53-F7FFC5D4C7F9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,13 +3324,13 @@
         <v>16839</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -3345,13 +3339,13 @@
         <v>32377</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -3360,13 +3354,13 @@
         <v>49216</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3375,13 @@
         <v>37159</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3396,13 +3390,13 @@
         <v>51087</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -3411,13 +3405,13 @@
         <v>88246</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>505640</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -3447,13 +3441,13 @@
         <v>659511</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1076</v>
@@ -3462,13 +3456,13 @@
         <v>1165150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3477,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3498,13 +3492,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3513,13 +3507,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3530,13 @@
         <v>16839</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -3551,13 +3545,13 @@
         <v>32377</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -3566,13 +3560,13 @@
         <v>49216</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3581,13 @@
         <v>37159</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3602,13 +3596,13 @@
         <v>51087</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -3617,13 +3611,13 @@
         <v>88246</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3632,13 @@
         <v>505640</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -3653,13 +3647,13 @@
         <v>659511</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1076</v>
@@ -3668,13 +3662,13 @@
         <v>1165150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3683,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3704,13 +3698,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3719,18 +3713,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D3917-DF06-480B-BE53-5FC7687F92C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3003A724-7647-4635-BD64-39DEFEEC569B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4780,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4801,13 +4795,13 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4816,13 +4810,13 @@
         <v>20498</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4831,13 @@
         <v>18201</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -4852,13 +4846,13 @@
         <v>40547</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4867,13 +4861,13 @@
         <v>58748</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>566514</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -4903,13 +4897,13 @@
         <v>723500</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -4918,13 +4912,13 @@
         <v>1290014</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4933,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4954,13 +4948,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4969,13 +4963,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>6613</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5007,13 +5001,13 @@
         <v>13884</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -5022,13 +5016,13 @@
         <v>20498</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>18201</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -5058,13 +5052,13 @@
         <v>40547</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -5073,13 +5067,13 @@
         <v>58748</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5088,13 @@
         <v>566514</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>614</v>
@@ -5109,13 +5103,13 @@
         <v>723500</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1213</v>
@@ -5124,13 +5118,13 @@
         <v>1290014</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5139,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5160,13 +5154,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5175,18 +5169,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5208,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E8F95-B231-4A80-B883-14A5565DA15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C07A8-4953-4604-A4A6-CACD5C84CD1F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6236,13 @@
         <v>6707</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -6257,13 +6251,13 @@
         <v>27321</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -6272,13 +6266,13 @@
         <v>34028</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6287,13 @@
         <v>23698</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6308,13 +6302,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -6323,10 +6317,10 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>28</v>
@@ -6344,13 +6338,13 @@
         <v>665811</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1546</v>
@@ -6359,13 +6353,13 @@
         <v>940032</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -6374,13 +6368,13 @@
         <v>1605843</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6389,13 @@
         <v>696216</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -6410,13 +6404,13 @@
         <v>1024663</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>2730</v>
@@ -6425,13 +6419,13 @@
         <v>1720879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6442,13 @@
         <v>6707</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -6463,13 +6457,13 @@
         <v>27321</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -6478,13 +6472,13 @@
         <v>34028</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6493,13 @@
         <v>23698</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -6514,13 +6508,13 @@
         <v>57310</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -6529,10 +6523,10 @@
         <v>81008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>28</v>
@@ -6550,13 +6544,13 @@
         <v>665811</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1546</v>
@@ -6565,13 +6559,13 @@
         <v>940032</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2524</v>
@@ -6580,13 +6574,13 @@
         <v>1605843</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6595,13 @@
         <v>696216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>1704</v>
@@ -6616,13 +6610,13 @@
         <v>1024663</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>2730</v>
@@ -6631,18 +6625,18 @@
         <v>1720879</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E125492-9219-4D93-8CF2-AF795E0838CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91109DDB-5DA8-4F7C-AC83-53D9EFE1ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2003E5EB-51B6-4163-98D2-3C85C2F7B563}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1ACA1E84-31AC-465C-ABB3-D54828951939}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,76 +104,79 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,157 +191,160 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>6,33%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,64%</t>
+    <t>92,75%</t>
   </si>
   <si>
     <t>95,48%</t>
@@ -350,52 +356,52 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>95,63%</t>
@@ -404,22 +410,22 @@
     <t>94,27%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>92,22%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -834,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24490D6B-5FB0-42F4-8005-917FAE3AB2B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD95E1-EC9E-45F4-AD73-45C31C2846A1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,10 +1928,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -1934,13 +1940,13 @@
         <v>27043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -1949,13 +1955,13 @@
         <v>55233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1976,13 @@
         <v>470700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -1985,13 +1991,13 @@
         <v>633852</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -2000,13 +2006,13 @@
         <v>1104552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2027,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2036,13 +2042,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2051,13 +2057,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2134,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2140,13 +2146,13 @@
         <v>27043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2155,13 +2161,13 @@
         <v>55233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2182,13 @@
         <v>470700</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>622</v>
@@ -2191,13 +2197,13 @@
         <v>633852</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1111</v>
@@ -2206,13 +2212,13 @@
         <v>1104552</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2233,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2242,13 +2248,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2257,18 +2263,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF435404-5425-4C00-AD53-F7FFC5D4C7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE215269-E6BD-49F3-8EB0-7FF8E2FD62AB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,13 +3330,13 @@
         <v>16839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -3339,13 +3345,13 @@
         <v>32377</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -3354,13 +3360,13 @@
         <v>49216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3381,13 @@
         <v>37159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3390,13 +3396,13 @@
         <v>51087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -3405,13 +3411,13 @@
         <v>88246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>505640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -3441,13 +3447,13 @@
         <v>659511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1076</v>
@@ -3456,13 +3462,13 @@
         <v>1165150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3483,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3492,13 +3498,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3507,13 +3513,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3536,13 @@
         <v>16839</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -3545,13 +3551,13 @@
         <v>32377</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -3560,13 +3566,13 @@
         <v>49216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3587,13 @@
         <v>37159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3596,13 +3602,13 @@
         <v>51087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -3611,13 +3617,13 @@
         <v>88246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3638,13 @@
         <v>505640</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -3647,13 +3653,13 @@
         <v>659511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1076</v>
@@ -3662,13 +3668,13 @@
         <v>1165150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3689,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3698,13 +3704,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3713,18 +3719,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3003A724-7647-4635-BD64-39DEFEEC569B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85289B-3D42-492F-BF68-E6EE5179EA1E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4786,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4795,13 +4801,13 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4810,13 +4816,13 @@
         <v>20498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4837,13 @@
         <v>18201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -4846,13 +4852,13 @@
         <v>40547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4861,13 +4867,13 @@
         <v>58748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4888,13 @@
         <v>566514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -4897,13 +4903,13 @@
         <v>723500</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -4912,13 +4918,13 @@
         <v>1290014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4939,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4948,13 +4954,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4963,13 +4969,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4992,13 @@
         <v>6613</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5001,13 +5007,13 @@
         <v>13884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -5016,13 +5022,13 @@
         <v>20498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5043,13 @@
         <v>18201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -5052,13 +5058,13 @@
         <v>40547</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -5067,13 +5073,13 @@
         <v>58748</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5094,13 @@
         <v>566514</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>614</v>
@@ -5103,13 +5109,13 @@
         <v>723500</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1213</v>
@@ -5118,13 +5124,13 @@
         <v>1290014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5145,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5154,13 +5160,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5169,18 +5175,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C07A8-4953-4604-A4A6-CACD5C84CD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7F975E-DCD2-4E1F-9930-EF6DED736EE5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6242,13 @@
         <v>6707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -6251,13 +6257,13 @@
         <v>27321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -6266,13 +6272,13 @@
         <v>34028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6293,13 @@
         <v>23698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6302,13 +6308,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -6317,13 +6323,13 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6344,13 @@
         <v>665811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1546</v>
@@ -6353,13 +6359,13 @@
         <v>940032</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -6368,13 +6374,13 @@
         <v>1605843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6395,13 @@
         <v>696216</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -6404,13 +6410,13 @@
         <v>1024663</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>2730</v>
@@ -6419,13 +6425,13 @@
         <v>1720879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6448,13 @@
         <v>6707</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -6457,13 +6463,13 @@
         <v>27321</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -6472,13 +6478,13 @@
         <v>34028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6499,13 @@
         <v>23698</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -6508,13 +6514,13 @@
         <v>57310</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -6523,13 +6529,13 @@
         <v>81008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6550,13 @@
         <v>665811</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1546</v>
@@ -6559,13 +6565,13 @@
         <v>940032</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2524</v>
@@ -6574,13 +6580,13 @@
         <v>1605843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6601,13 @@
         <v>696216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>1704</v>
@@ -6610,13 +6616,13 @@
         <v>1024663</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>2730</v>
@@ -6625,18 +6631,18 @@
         <v>1720879</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91109DDB-5DA8-4F7C-AC83-53D9EFE1ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AF4469-9EAE-4C2F-8879-09638083ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1ACA1E84-31AC-465C-ABB3-D54828951939}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{873460F1-6B00-486C-B365-D6B180A05C82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="316">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -83,19 +83,187 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -119,9 +287,6 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>2,73%</t>
   </si>
   <si>
@@ -179,15 +344,168 @@
     <t>94,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
     <t>3,01%</t>
   </si>
   <si>
@@ -272,18 +590,150 @@
     <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>3,34%</t>
   </si>
   <si>
@@ -317,9 +767,6 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>5,59%</t>
   </si>
   <si>
@@ -353,82 +800,193 @@
     <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -840,8 +1398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD95E1-EC9E-45F4-AD73-45C31C2846A1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8462858-BFB0-40D2-B65F-2C4848509280}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1883,10 +2441,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>15947</v>
+        <v>2863</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1898,10 +2456,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>19523</v>
+        <v>6439</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1919,10 +2477,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>28190</v>
+        <v>7287</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1934,10 +2492,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>27043</v>
+        <v>4594</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1949,10 +2507,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>55233</v>
+        <v>11880</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1970,10 +2528,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>489</v>
+        <v>292</v>
       </c>
       <c r="D26" s="7">
-        <v>470700</v>
+        <v>281721</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1985,10 +2543,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>622</v>
+        <v>363</v>
       </c>
       <c r="I26" s="7">
-        <v>633852</v>
+        <v>335477</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -2000,10 +2558,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>1111</v>
+        <v>655</v>
       </c>
       <c r="N26" s="7">
-        <v>1104552</v>
+        <v>617198</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2021,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2036,10 +2594,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2051,10 +2609,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2068,55 +2626,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3576</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>15947</v>
+        <v>13084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N28" s="7">
-        <v>19523</v>
+        <v>13084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2683,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>28190</v>
+        <v>20903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I29" s="7">
-        <v>27043</v>
+        <v>22449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N29" s="7">
-        <v>55233</v>
+        <v>43353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2734,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>489</v>
+        <v>197</v>
       </c>
       <c r="D30" s="7">
-        <v>470700</v>
+        <v>188980</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>622</v>
+        <v>259</v>
       </c>
       <c r="I30" s="7">
-        <v>633852</v>
+        <v>298375</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>1111</v>
+        <v>456</v>
       </c>
       <c r="N30" s="7">
-        <v>1104552</v>
+        <v>487354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,63 +2785,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3576</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7">
+        <v>15947</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7">
+        <v>19523</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>28190</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>24</v>
+      </c>
+      <c r="I33" s="7">
+        <v>27043</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>55</v>
+      </c>
+      <c r="N33" s="7">
+        <v>55233</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>489</v>
+      </c>
+      <c r="D34" s="7">
+        <v>470700</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>622</v>
+      </c>
+      <c r="I34" s="7">
+        <v>633852</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1111</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1104552</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2296,8 +3061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE215269-E6BD-49F3-8EB0-7FF8E2FD62AB}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81D2D82-BA68-4245-A1A9-96012F285D7A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2313,7 +3078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,49 +4089,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>16839</v>
+        <v>3945</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3877</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>8</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7821</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="7">
-        <v>32377</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="7">
-        <v>44</v>
-      </c>
-      <c r="N24" s="7">
-        <v>49216</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,49 +4140,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>37159</v>
+        <v>12663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>51087</v>
+        <v>9858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>88246</v>
+        <v>22521</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +4191,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>458</v>
+        <v>268</v>
       </c>
       <c r="D26" s="7">
-        <v>505640</v>
+        <v>293179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
-        <v>618</v>
+        <v>330</v>
       </c>
       <c r="I26" s="7">
-        <v>659511</v>
+        <v>340261</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
-        <v>1076</v>
+        <v>598</v>
       </c>
       <c r="N26" s="7">
-        <v>1165150</v>
+        <v>633440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3492,10 +4257,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3507,10 +4272,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3524,55 +4289,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7">
-        <v>16839</v>
+        <v>12894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>32377</v>
+        <v>28500</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N28" s="7">
-        <v>49216</v>
+        <v>41394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,49 +4346,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7">
-        <v>37159</v>
+        <v>24496</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="7">
+        <v>37</v>
+      </c>
+      <c r="I29" s="7">
+        <v>41229</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="7">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="7">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7">
-        <v>51087</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="7">
-        <v>78</v>
-      </c>
       <c r="N29" s="7">
-        <v>88246</v>
+        <v>65725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,49 +4397,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>458</v>
+        <v>190</v>
       </c>
       <c r="D30" s="7">
-        <v>505640</v>
+        <v>212461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="H30" s="7">
-        <v>618</v>
+        <v>288</v>
       </c>
       <c r="I30" s="7">
-        <v>659511</v>
+        <v>319250</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="M30" s="7">
-        <v>1076</v>
+        <v>478</v>
       </c>
       <c r="N30" s="7">
-        <v>1165150</v>
+        <v>531710</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,63 +4448,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16839</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="7">
+        <v>29</v>
+      </c>
+      <c r="I32" s="7">
+        <v>32377</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="7">
+        <v>44</v>
+      </c>
+      <c r="N32" s="7">
+        <v>49216</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>37159</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="7">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7">
+        <v>51087</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="7">
+        <v>78</v>
+      </c>
+      <c r="N33" s="7">
+        <v>88246</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>458</v>
+      </c>
+      <c r="D34" s="7">
+        <v>505640</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7">
+        <v>618</v>
+      </c>
+      <c r="I34" s="7">
+        <v>659511</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1076</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1165150</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3752,8 +4724,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85289B-3D42-492F-BF68-E6EE5179EA1E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2753F618-D2F6-4034-9663-C4BD414DD5C4}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3769,7 +4741,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,49 +5752,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>6613</v>
+        <v>952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>13884</v>
+        <v>1037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>20498</v>
+        <v>1989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +5803,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3019</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
-        <v>18201</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>40547</v>
+        <v>4879</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>58748</v>
+        <v>7897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +5854,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="D26" s="7">
-        <v>566514</v>
+        <v>330360</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
-        <v>614</v>
+        <v>348</v>
       </c>
       <c r="I26" s="7">
-        <v>723500</v>
+        <v>371846</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="M26" s="7">
-        <v>1213</v>
+        <v>669</v>
       </c>
       <c r="N26" s="7">
-        <v>1290014</v>
+        <v>702205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,10 +5905,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4948,10 +5920,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4963,10 +5935,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4980,55 +5952,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>6613</v>
+        <v>5662</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="7">
-        <v>13884</v>
+        <v>12847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N28" s="7">
-        <v>20498</v>
+        <v>18509</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +6009,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>18201</v>
+        <v>15182</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7">
-        <v>40547</v>
+        <v>35668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N29" s="7">
-        <v>58748</v>
+        <v>50850</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +6060,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>599</v>
+        <v>278</v>
       </c>
       <c r="D30" s="7">
-        <v>566514</v>
+        <v>236154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="H30" s="7">
-        <v>614</v>
+        <v>266</v>
       </c>
       <c r="I30" s="7">
-        <v>723500</v>
+        <v>351654</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="M30" s="7">
-        <v>1213</v>
+        <v>544</v>
       </c>
       <c r="N30" s="7">
-        <v>1290014</v>
+        <v>587808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,63 +6111,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6613</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7">
+        <v>13884</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7">
+        <v>20498</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>20</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18201</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="7">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7">
+        <v>40547</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" s="7">
+        <v>51</v>
+      </c>
+      <c r="N33" s="7">
+        <v>58748</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>599</v>
+      </c>
+      <c r="D34" s="7">
+        <v>566514</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="7">
+        <v>614</v>
+      </c>
+      <c r="I34" s="7">
+        <v>723500</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1213</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1290014</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5208,8 +6387,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7F975E-DCD2-4E1F-9930-EF6DED736EE5}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCC580B-4387-4AF4-8849-D77FFBAB48C5}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5225,7 +6404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,49 +7415,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>6707</v>
+        <v>632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>27321</v>
+        <v>1604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="M24" s="7">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>34028</v>
+        <v>2237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,49 +7466,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>23698</v>
+        <v>4051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>57310</v>
+        <v>6481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>81008</v>
+        <v>10532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,49 +7517,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>978</v>
+        <v>562</v>
       </c>
       <c r="D26" s="7">
-        <v>665811</v>
+        <v>362862</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
-        <v>1546</v>
+        <v>808</v>
       </c>
       <c r="I26" s="7">
-        <v>940032</v>
+        <v>599068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="M26" s="7">
-        <v>2524</v>
+        <v>1370</v>
       </c>
       <c r="N26" s="7">
-        <v>1605843</v>
+        <v>961930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,10 +7568,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>696216</v>
+        <v>367545</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6404,10 +7583,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1704</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>1024663</v>
+        <v>607154</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6419,10 +7598,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2730</v>
+        <v>1393</v>
       </c>
       <c r="N27" s="7">
-        <v>1720879</v>
+        <v>974699</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6436,55 +7615,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>6707</v>
+        <v>5798</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="H28" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I28" s="7">
-        <v>27321</v>
+        <v>23117</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N28" s="7">
-        <v>34028</v>
+        <v>28915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,49 +7672,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>23698</v>
+        <v>18194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I29" s="7">
-        <v>57310</v>
+        <v>45790</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N29" s="7">
-        <v>81008</v>
+        <v>63985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +7723,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>978</v>
+        <v>416</v>
       </c>
       <c r="D30" s="7">
-        <v>665811</v>
+        <v>258021</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="H30" s="7">
-        <v>1546</v>
+        <v>738</v>
       </c>
       <c r="I30" s="7">
-        <v>940032</v>
+        <v>356332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="M30" s="7">
-        <v>2524</v>
+        <v>1154</v>
       </c>
       <c r="N30" s="7">
-        <v>1605843</v>
+        <v>614352</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +7774,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707252</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6431</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="7">
+        <v>49</v>
+      </c>
+      <c r="I32" s="7">
+        <v>24721</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" s="7">
+        <v>60</v>
+      </c>
+      <c r="N32" s="7">
+        <v>31152</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7">
+        <v>22245</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H33" s="7">
+        <v>109</v>
+      </c>
+      <c r="I33" s="7">
+        <v>52272</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="7">
+        <v>146</v>
+      </c>
+      <c r="N33" s="7">
+        <v>74516</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>978</v>
+      </c>
+      <c r="D34" s="7">
+        <v>620883</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1546</v>
+      </c>
+      <c r="I34" s="7">
+        <v>955400</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2524</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1576283</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1026</v>
       </c>
-      <c r="D31" s="7">
-        <v>696216</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>649558</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1704</v>
       </c>
-      <c r="I31" s="7">
-        <v>1024663</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1032393</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2730</v>
       </c>
-      <c r="N31" s="7">
-        <v>1720879</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1681951</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
